--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work2\quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58DCEFD-2FBA-4EFB-9501-4F2BFC629AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688E8FDB-15CC-4ACE-85D1-31FA4BD749C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{DA3D10C1-DF16-41BB-A034-7821FE0F7D05}"/>
   </bookViews>
@@ -1328,7 +1328,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f ca="1">LOWER(DEC2HEX(RANDBETWEEN(0,16^8)))</f>
-        <v>9fb56c3e</v>
+        <v>ddd6777e</v>
       </c>
       <c r="I20">
         <v>4</v>
